--- a/Income/WLTW_inc.xlsx
+++ b/Income/WLTW_inc.xlsx
@@ -1822,16 +1822,16 @@
         <v>0.9982</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.9987</v>
+        <v>0.9988</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.9991</v>
+        <v>0.9992</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.9996</v>
+        <v>0.9997</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.9999</v>
+        <v>1.0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1.0</v>
@@ -2079,13 +2079,13 @@
         <v>0.1519</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.1449</v>
+        <v>0.145</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0.1471</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1462</v>
+        <v>0.1463</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1289</v>
@@ -2339,7 +2339,7 @@
         <v>0.0912</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0858</v>
+        <v>0.0859</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1034</v>
@@ -3949,16 +3949,16 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2107</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.2085</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.2216</v>
+        <v>0.2217</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.2253</v>
+        <v>0.2254</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>0.228</v>
@@ -4082,13 +4082,13 @@
         <v>0.1893</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.1794</v>
+        <v>0.1795</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0.1579</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.1251</v>
+        <v>0.1252</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>0.1196</v>
